--- a/Assets/StreamingAssets/Analysis.xlsx
+++ b/Assets/StreamingAssets/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConfirmProject\Oscillationillstration\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC69874-09CE-461F-B0B1-0683557FED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3834B54B-0257-4996-9393-EC9E88B3399F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35025" yWindow="9405" windowWidth="19200" windowHeight="10605" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="5460" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detail" sheetId="1" r:id="rId1"/>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="N192" sqref="A1:O133465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -417,6 +417,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -425,7 +426,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="A1:XFD1048576"/>
+      <selection activeCell="J34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
